--- a/GaTestPack001.xlsx
+++ b/GaTestPack001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\testingGAIntegration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721D95D6-0BAE-4242-86AD-78910BEFC22F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C7788-59A9-4303-B62D-69686A898D1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
